--- a/biology/Botanique/Linderniaceae/Linderniaceae.xlsx
+++ b/biology/Botanique/Linderniaceae/Linderniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Linderniaceae sont une famille de plantes dicotylédones qui comprend environ 265 espèces réparties en 25 genres.
 Ce sont des petites plantes herbacées à feuilles opposées, dentées, originaires des zones tropicales à tempérées, principalement du Nouveau Monde.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Lindernia, qui porte le nom du médecin et botaniste franco-allemand Franz Balthasar von Lindern (de) (1682–1755), connu pour ses travaux sur les maladies sexuellement transmissibles Der Venus-Spiegel ( « le miroir de Vénus »). 
 En tant que botaniste, il fut directeur du Jardin botanique de Strasbourg et, en 1728, publia une flore d'Alsace selon le système de Joseph Pitton de Tournefort d’où le nom de sa flore Tournefortius Alsaticus réédité en 1747 sous le titre Hortus alsaticus.
@@ -545,10 +559,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[1] cette famille n'existe pas, les genres se répartissant dans diverses familles dont les Plantaginaceae et les Scrophulariaceae. 
-Cette famille a été introduite par la classification phylogénétique APG III (2009)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille n'existe pas, les genres se répartissant dans diverses familles dont les Plantaginaceae et les Scrophulariaceae. 
+Cette famille a été introduite par la classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (7 Jul 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (7 Jul 2010) :
 Artanema D. Don (placé dans Plantaginaceae par NCBI)
 Bampsia Lisowski &amp; Mielcarek
 Chamaegigas Dinter
@@ -596,7 +614,7 @@
 Scolophyllum T. Yamazaki
 Stemodiopsis Engler (placé dans Scrophulariaceae par NCBI)
 Torenia Linnaeus
-Selon NCBI  (7 Jul 2010)[4] :
+Selon NCBI  (7 Jul 2010) :
 Craterostigma
 Crepidorhopalon
 Lindernia
@@ -629,9 +647,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (7 Jul 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (7 Jul 2010) :
 genre Craterostigma
 Craterostigma hirsutum
 Craterostigma plantagineum
